--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1352529.007848737</v>
+        <v>1348372.82154077</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>72.32124422557553</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
@@ -712,22 +712,22 @@
         <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>12.59441088465706</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>191.8792568753092</v>
+        <v>2.27376645682436</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>108.3682523643919</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>64.83556544767973</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>140.4959931038293</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>2.289169959975606</v>
+        <v>181.0919561226081</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>216.3192659361114</v>
+        <v>44.8655118376526</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.9354087744531</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555396</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>62.61619656039718</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>181.0919561226081</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>147.2606364488705</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.16086499484859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>93.07916359105417</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>107.4021082756238</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>115.2302178375793</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>18.70843787977262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>31.66396365647125</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>245.8796921214428</v>
+        <v>275.330023919727</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>36.4306205949047</v>
       </c>
       <c r="S31" t="n">
-        <v>154.0869401039713</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520993</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>207.0967504439648</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>53.08838020946216</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>146.7151441592111</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>142.4285301601181</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>151.8518831495033</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1671.932933623204</v>
+        <v>538.7037775204458</v>
       </c>
       <c r="C2" t="n">
-        <v>1671.932933623204</v>
+        <v>538.7037775204458</v>
       </c>
       <c r="D2" t="n">
-        <v>1671.932933623204</v>
+        <v>538.7037775204458</v>
       </c>
       <c r="E2" t="n">
-        <v>1286.144681024959</v>
+        <v>538.7037775204458</v>
       </c>
       <c r="F2" t="n">
-        <v>875.158776235352</v>
+        <v>531.7582767712423</v>
       </c>
       <c r="G2" t="n">
         <v>458.7065149272266</v>
@@ -4330,28 +4330,28 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520187</v>
+        <v>605.2571586872677</v>
       </c>
       <c r="L2" t="n">
-        <v>525.3175166702108</v>
+        <v>842.8799399054598</v>
       </c>
       <c r="M2" t="n">
-        <v>1166.340726290105</v>
+        <v>1138.950506463063</v>
       </c>
       <c r="N2" t="n">
-        <v>1483.55219637312</v>
+        <v>1444.425612698648</v>
       </c>
       <c r="O2" t="n">
-        <v>1758.668415689754</v>
+        <v>1719.541832015283</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068625</v>
+        <v>2238.426880394154</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4360,22 +4360,22 @@
         <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2448.259651016315</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2448.259651016315</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>2448.259651016315</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.538023860096</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>2062.072265599016</v>
+        <v>925.3036175845675</v>
       </c>
       <c r="Y2" t="n">
-        <v>1671.932933623204</v>
+        <v>925.3036175845675</v>
       </c>
     </row>
     <row r="3">
@@ -4391,16 +4391,16 @@
         <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
         <v>85.9974213009382</v>
@@ -4409,25 +4409,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>460.3590590626825</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>1037.081874165938</v>
+        <v>1000.641447200244</v>
       </c>
       <c r="M3" t="n">
-        <v>1301.021405661426</v>
+        <v>1264.580978695732</v>
       </c>
       <c r="N3" t="n">
-        <v>1586.355276094759</v>
+        <v>1905.604188315626</v>
       </c>
       <c r="O3" t="n">
-        <v>2215.08392393018</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4445,7 +4445,7 @@
         <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>486.1770312829267</v>
+        <v>1667.848267437465</v>
       </c>
       <c r="C4" t="n">
-        <v>486.1770312829267</v>
+        <v>1498.912084509559</v>
       </c>
       <c r="D4" t="n">
-        <v>336.060391870591</v>
+        <v>1498.912084509559</v>
       </c>
       <c r="E4" t="n">
-        <v>336.060391870591</v>
+        <v>1498.912084509559</v>
       </c>
       <c r="F4" t="n">
-        <v>336.060391870591</v>
+        <v>1498.912084509559</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7386194637149</v>
+        <v>1330.590312102682</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>1330.590312102682</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>1330.590312102682</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>1332.824984110047</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>1466.33407339585</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>1692.706176713995</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>1941.772943046535</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>2190.352074789136</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>2403.938841137291</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>2563.178535773335</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702568</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S4" t="n">
-        <v>1193.542248702568</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T4" t="n">
-        <v>969.1310894780056</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U4" t="n">
-        <v>679.9944624701077</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V4" t="n">
-        <v>486.1770312829267</v>
+        <v>2587.696032346214</v>
       </c>
       <c r="W4" t="n">
-        <v>486.1770312829267</v>
+        <v>2298.278862309253</v>
       </c>
       <c r="X4" t="n">
-        <v>486.1770312829267</v>
+        <v>2070.289311411235</v>
       </c>
       <c r="Y4" t="n">
-        <v>486.1770312829267</v>
+        <v>1849.496732267705</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1688.012023266461</v>
+        <v>895.7889385783003</v>
       </c>
       <c r="C5" t="n">
-        <v>1688.012023266461</v>
+        <v>895.7889385783003</v>
       </c>
       <c r="D5" t="n">
-        <v>1329.746324659711</v>
+        <v>537.5232399715499</v>
       </c>
       <c r="E5" t="n">
-        <v>943.9580720614667</v>
+        <v>537.5232399715499</v>
       </c>
       <c r="F5" t="n">
-        <v>532.9721672718592</v>
+        <v>530.5777392223464</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719912</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4585,34 +4585,34 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2448.077621591663</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="U5" t="n">
-        <v>2448.077621591663</v>
+        <v>2003.590997961804</v>
       </c>
       <c r="V5" t="n">
-        <v>2448.077621591663</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="W5" t="n">
-        <v>2448.077621591663</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="X5" t="n">
-        <v>2074.611863330583</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="Y5" t="n">
-        <v>2074.611863330583</v>
+        <v>1282.388778642422</v>
       </c>
     </row>
     <row r="6">
@@ -4631,43 +4631,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431335</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594483</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1731.417920441367</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>2170.651831027005</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>620.859647846162</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="C7" t="n">
-        <v>620.859647846162</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D7" t="n">
-        <v>620.859647846162</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E7" t="n">
-        <v>620.859647846162</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F7" t="n">
-        <v>473.9697003482516</v>
+        <v>219.7760440609303</v>
       </c>
       <c r="G7" t="n">
-        <v>305.993511610141</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
@@ -4749,28 +4749,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1321.927733452885</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1032.809956463283</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>1032.809956463283</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>1030.497663574419</v>
+        <v>1464.062502353264</v>
       </c>
       <c r="X7" t="n">
-        <v>802.5081126764018</v>
+        <v>1236.072951455246</v>
       </c>
       <c r="Y7" t="n">
-        <v>802.5081126764018</v>
+        <v>1015.280372311716</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1408.518284685965</v>
+        <v>169.5545250471063</v>
       </c>
       <c r="C8" t="n">
-        <v>1039.555767745553</v>
+        <v>169.5545250471063</v>
       </c>
       <c r="D8" t="n">
-        <v>681.2900691388024</v>
+        <v>169.5545250471063</v>
       </c>
       <c r="E8" t="n">
-        <v>681.2900691388024</v>
+        <v>169.5545250471063</v>
       </c>
       <c r="F8" t="n">
-        <v>270.3041643491949</v>
+        <v>162.6090242979029</v>
       </c>
       <c r="G8" t="n">
-        <v>51.7998553228197</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H8" t="n">
-        <v>51.7998553228197</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
         <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104779</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135508</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477379</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4819,10 +4819,10 @@
         <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.81819508206</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
         <v>2568.493631507461</v>
@@ -4831,25 +4831,25 @@
         <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560729</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.815585560729</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.815585560729</v>
+        <v>2003.590997961804</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.752698217158</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="W8" t="n">
-        <v>1781.984042947044</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.518284685965</v>
+        <v>946.2936970870398</v>
       </c>
       <c r="Y8" t="n">
-        <v>1408.518284685965</v>
+        <v>556.1543651112281</v>
       </c>
     </row>
     <row r="9">
@@ -4868,43 +4868,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
         <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258287</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L9" t="n">
-        <v>942.9699568457224</v>
+        <v>1067.800081832727</v>
       </c>
       <c r="M9" t="n">
-        <v>1309.275846338048</v>
+        <v>1434.105971325053</v>
       </c>
       <c r="N9" t="n">
-        <v>1699.68540766379</v>
+        <v>1824.515532650795</v>
       </c>
       <c r="O9" t="n">
-        <v>2034.614088379321</v>
+        <v>2159.444213366326</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>727.4352982924888</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="C10" t="n">
-        <v>558.4991153645819</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D10" t="n">
-        <v>558.4991153645819</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E10" t="n">
-        <v>410.5860217821888</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F10" t="n">
-        <v>263.6960742842784</v>
+        <v>219.7760440609303</v>
       </c>
       <c r="G10" t="n">
-        <v>263.6960742842784</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H10" t="n">
-        <v>115.0485387171603</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I10" t="n">
         <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080545</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121971</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225442</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317419</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750633</v>
@@ -4995,19 +4995,19 @@
         <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1357.865893164276</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1357.865893164276</v>
+        <v>1464.062502353264</v>
       </c>
       <c r="W10" t="n">
-        <v>1357.865893164276</v>
+        <v>1464.062502353264</v>
       </c>
       <c r="X10" t="n">
-        <v>1129.876342266259</v>
+        <v>1236.072951455246</v>
       </c>
       <c r="Y10" t="n">
-        <v>909.0837631227286</v>
+        <v>1015.280372311716</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2298.214965955139</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2078.61350097808</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5272,10 +5272,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5372,13 +5372,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.284195611858</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5512,46 +5512,46 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041575</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797186</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5849,7 +5849,7 @@
         <v>2222.001901828445</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5977,16 +5977,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5998,13 +5998,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733.4550657171301</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C25" t="n">
-        <v>564.5188827892232</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D25" t="n">
-        <v>414.4022433768874</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473698</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="26">
@@ -6208,31 +6208,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2387.388512467612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1729.097755135313</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1729.097755135313</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,34 +6478,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2410.164476918741</v>
       </c>
       <c r="S31" t="n">
-        <v>2291.319709737865</v>
+        <v>2410.164476918741</v>
       </c>
       <c r="T31" t="n">
-        <v>2071.718244760806</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U31" t="n">
-        <v>1782.643018105004</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V31" t="n">
-        <v>1527.958529899117</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W31" t="n">
-        <v>1238.541359862156</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X31" t="n">
-        <v>1010.551808964139</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y31" t="n">
-        <v>789.7592298206043</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1938.286391947399</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516144</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969303</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.537229081859</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2236.050177650725</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2016.448712673667</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W46" t="n">
-        <v>3677.571434467152</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X46" t="n">
-        <v>3677.571434467152</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y46" t="n">
-        <v>3524.185693912098</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>151.6735093079757</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942333</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>11.85491297720165</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>207.9407978764908</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945058</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>138.6886171670653</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740404</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>253.1450992870217</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>105.358818050613</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>162.749156032542</v>
+        <v>11.32082591987808</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906581</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-1.108058604532503e-12</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>33.76564955277411</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>134.6711151870887</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>125.5054897610406</v>
       </c>
     </row>
     <row r="17">
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>32.89260457060008</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>31.20374480898987</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>114.7699989900979</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>40.30478226780133</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>29.94462611521699</v>
       </c>
       <c r="S31" t="n">
-        <v>26.93934589767332</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>79.42624789262624</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>38.59775584152646</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.73277020259147</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933708.0853286183</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>933708.0853286181</v>
+        <v>933708.0853286179</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>933708.0853286183</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286183</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>933708.0853286183</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>933708.0853286181</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>933708.0853286183</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>933708.0853286183</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>933708.0853286183</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185694</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="G2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="G2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="H2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="M2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="M2" t="n">
-        <v>484287.9598140037</v>
-      </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140036</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457509</v>
+        <v>500888.8677457507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042354</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,34 +26429,34 @@
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695106</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="M4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6287.480531695023</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26472,10 +26472,10 @@
         <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150957</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-696188.7876689797</v>
+        <v>-696188.78766898</v>
       </c>
       <c r="C6" t="n">
-        <v>97312.85804192018</v>
+        <v>97312.8580419201</v>
       </c>
       <c r="D6" t="n">
-        <v>270077.2178318123</v>
+        <v>270077.2178318124</v>
       </c>
       <c r="E6" t="n">
-        <v>-124010.9182873494</v>
+        <v>-124358.2975417062</v>
       </c>
       <c r="F6" t="n">
-        <v>376877.9494584014</v>
+        <v>376530.5702040443</v>
       </c>
       <c r="G6" t="n">
-        <v>376877.9494584015</v>
+        <v>376530.5702040445</v>
       </c>
       <c r="H6" t="n">
-        <v>376877.9494584014</v>
+        <v>376530.5702040444</v>
       </c>
       <c r="I6" t="n">
-        <v>376877.9494584014</v>
+        <v>376530.5702040445</v>
       </c>
       <c r="J6" t="n">
-        <v>207463.9326323533</v>
+        <v>207116.5533779966</v>
       </c>
       <c r="K6" t="n">
-        <v>376877.9494584014</v>
+        <v>376530.5702040444</v>
       </c>
       <c r="L6" t="n">
-        <v>376877.9494584014</v>
+        <v>376530.5702040446</v>
       </c>
       <c r="M6" t="n">
-        <v>245993.4925541661</v>
+        <v>245646.1132998093</v>
       </c>
       <c r="N6" t="n">
-        <v>376877.9494584015</v>
+        <v>376530.5702040445</v>
       </c>
       <c r="O6" t="n">
-        <v>376877.9494584017</v>
+        <v>376530.5702040445</v>
       </c>
       <c r="P6" t="n">
-        <v>376877.9494584014</v>
+        <v>376530.5702040445</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498444</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352462</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918294</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>339.9664944694686</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>336.6465578327559</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,7 +27557,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>60.25838644851882</v>
+        <v>249.8638768670037</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>303.1567710174774</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>66.06291284193139</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>284.2338283766154</v>
+        <v>105.4310422139829</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>195.2057574457579</v>
+        <v>366.6595115442167</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>41.87446295260396</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>71.04568720121986</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29738,7 +29738,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -31518,7 +31518,7 @@
         <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730739</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
@@ -31530,28 +31530,28 @@
         <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.151623085328</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027918</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839331</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712722</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062751</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
         <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179229</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837062</v>
@@ -31594,13 +31594,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586112</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31609,16 +31609,16 @@
         <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973637</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041651</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315577</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.908043147001</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274805</v>
@@ -31627,7 +31627,7 @@
         <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
         <v>37.54392985284989</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425714</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
@@ -31688,7 +31688,7 @@
         <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979551</v>
@@ -31706,13 +31706,13 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662505</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.24036071484306</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
         <v>0.0924301367852307</v>
@@ -31837,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31858,7 +31858,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>332.9841464938405</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>163.5723821283056</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32569,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>232.75998908852</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>307.3280120589134</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,25 +33505,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>263.7590256391492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>430.4001870301144</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,22 +34453,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>434.6640573992324</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>315.1028144241328</v>
       </c>
       <c r="L2" t="n">
         <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352464</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>320.4156263464798</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
         <v>277.8951710269035</v>
@@ -34722,7 +34722,7 @@
         <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
         <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>419.6487506571282</v>
       </c>
       <c r="M3" t="n">
         <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>312.758274696065</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961988</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671845</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35026,19 +35026,19 @@
         <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>443.6706167531696</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.449553134417</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153407</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755191</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873422</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495854</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.7162976096198</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
         <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>647.4981915352462</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821468</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482245</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
         <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>414.7458508456922</v>
+        <v>263.3175207330283</v>
       </c>
       <c r="Q9" t="n">
         <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978359</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
         <v>279.5237680912597</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35506,7 +35506,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>25.73094315394658</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>98.78558167418976</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>167.3462379728918</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>132.4173135558158</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>291.8458072502402</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1348372.82154077</v>
+        <v>1350133.351843555</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>72.32124422557553</v>
+        <v>12.28773869504417</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>94.24014755885219</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>73.02489000492943</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906504</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833759</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -822,16 +822,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>14.96483578850288</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>2.27376645682436</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>108.3682523643919</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>75.24796662611973</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -992,10 +992,10 @@
         <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.71437374394026</v>
+        <v>92.71437374394024</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>181.0919561226081</v>
+        <v>181.0919561226092</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>44.8655118376526</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>83.65659230095962</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>60.86538463674701</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>181.0919561226081</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1539,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>147.2606364488705</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>140.9357387834172</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1666,10 +1666,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.07916359105417</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105417</v>
       </c>
     </row>
     <row r="20">
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>115.2302178375793</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>125.2851635392052</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2490,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>51.3656974031032</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>28.87857325623944</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>160.2261899043209</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>275.330023919727</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2958,13 +2958,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>36.4306205949047</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>126.6321535627876</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>68.17501931583824</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>122.8704329402507</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>146.7151441592111</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>142.4285301601181</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>220.4289331391115</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>538.7037775204458</v>
+        <v>1205.292088491314</v>
       </c>
       <c r="C2" t="n">
-        <v>538.7037775204458</v>
+        <v>836.3295715509028</v>
       </c>
       <c r="D2" t="n">
-        <v>538.7037775204458</v>
+        <v>478.0638729441523</v>
       </c>
       <c r="E2" t="n">
-        <v>538.7037775204458</v>
+        <v>478.0638729441523</v>
       </c>
       <c r="F2" t="n">
-        <v>531.7582767712423</v>
+        <v>471.1183721949488</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272266</v>
+        <v>458.7065149272275</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640839</v>
+        <v>146.9919235640846</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>125.8997233870219</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872677</v>
+        <v>608.5986938974684</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054598</v>
+        <v>846.2214751156579</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463063</v>
+        <v>1142.292041673258</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698648</v>
+        <v>1447.767147908841</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>1722.883367225472</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2238.426880394158</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2550.866182466517</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2516.230250984493</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2516.230250984493</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459332</v>
+        <v>2262.589389366079</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.538031115761</v>
+        <v>1931.526502022508</v>
       </c>
       <c r="W2" t="n">
-        <v>1298.769375845647</v>
+        <v>1578.757846752394</v>
       </c>
       <c r="X2" t="n">
-        <v>925.3036175845675</v>
+        <v>1205.292088491314</v>
       </c>
       <c r="Y2" t="n">
-        <v>925.3036175845675</v>
+        <v>1205.292088491314</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.629392168681</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093853</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>201.9455071369546</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496874</v>
+        <v>464.3298303300239</v>
       </c>
       <c r="L3" t="n">
-        <v>1000.641447200244</v>
+        <v>1041.052645433278</v>
       </c>
       <c r="M3" t="n">
-        <v>1264.580978695732</v>
+        <v>1304.992176928763</v>
       </c>
       <c r="N3" t="n">
-        <v>1905.604188315626</v>
+        <v>1590.326047362094</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067085</v>
+        <v>1829.13099911355</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
@@ -4442,7 +4442,7 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1667.848267437465</v>
+        <v>680.7717144893284</v>
       </c>
       <c r="C4" t="n">
-        <v>1498.912084509559</v>
+        <v>511.8355315614215</v>
       </c>
       <c r="D4" t="n">
-        <v>1498.912084509559</v>
+        <v>361.7188921490857</v>
       </c>
       <c r="E4" t="n">
-        <v>1498.912084509559</v>
+        <v>213.8057985666926</v>
       </c>
       <c r="F4" t="n">
-        <v>1498.912084509559</v>
+        <v>66.91585106878225</v>
       </c>
       <c r="G4" t="n">
-        <v>1330.590312102682</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="H4" t="n">
-        <v>1330.590312102682</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I4" t="n">
-        <v>1330.590312102682</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J4" t="n">
-        <v>1332.824984110047</v>
+        <v>54.03452733018365</v>
       </c>
       <c r="K4" t="n">
-        <v>1466.33407339585</v>
+        <v>187.5436166159861</v>
       </c>
       <c r="L4" t="n">
-        <v>1692.706176713995</v>
+        <v>413.9157199341293</v>
       </c>
       <c r="M4" t="n">
-        <v>1941.772943046535</v>
+        <v>662.9824862666686</v>
       </c>
       <c r="N4" t="n">
-        <v>2190.352074789136</v>
+        <v>911.5616180092685</v>
       </c>
       <c r="O4" t="n">
-        <v>2403.938841137291</v>
+        <v>1125.148384357423</v>
       </c>
       <c r="P4" t="n">
-        <v>2563.178535773335</v>
+        <v>1284.388078993466</v>
       </c>
       <c r="Q4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="R4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="S4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="T4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="U4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="V4" t="n">
-        <v>2587.696032346214</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="W4" t="n">
-        <v>2298.278862309253</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="X4" t="n">
-        <v>2070.289311411235</v>
+        <v>1083.212758463098</v>
       </c>
       <c r="Y4" t="n">
-        <v>1849.496732267705</v>
+        <v>862.4201793195681</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>895.7889385783003</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="C5" t="n">
-        <v>895.7889385783003</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="D5" t="n">
-        <v>537.5232399715499</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="E5" t="n">
-        <v>537.5232399715499</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="F5" t="n">
-        <v>530.5777392223464</v>
+        <v>532.9721672718591</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H5" t="n">
         <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135509</v>
+        <v>447.8319447135513</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477389</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2513.984719043896</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019557</v>
+        <v>2305.339359502724</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.590997961804</v>
+        <v>2051.760131444971</v>
       </c>
       <c r="V5" t="n">
-        <v>1672.528110618234</v>
+        <v>1720.6972441014</v>
       </c>
       <c r="W5" t="n">
-        <v>1672.528110618234</v>
+        <v>1720.6972441014</v>
       </c>
       <c r="X5" t="n">
-        <v>1672.528110618234</v>
+        <v>1720.6972441014</v>
       </c>
       <c r="Y5" t="n">
-        <v>1282.388778642422</v>
+        <v>1330.557912125588</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096208</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
-        <v>426.7768722128335</v>
+        <v>301.946747225829</v>
       </c>
       <c r="L6" t="n">
-        <v>724.0888213291482</v>
+        <v>599.2586963421438</v>
       </c>
       <c r="M6" t="n">
-        <v>1090.394710821474</v>
+        <v>1240.281905962038</v>
       </c>
       <c r="N6" t="n">
-        <v>1731.417920441367</v>
+        <v>1630.691467287781</v>
       </c>
       <c r="O6" t="n">
-        <v>2170.651831027005</v>
+        <v>1965.620148003312</v>
       </c>
       <c r="P6" t="n">
-        <v>2420.128558892024</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4713,55 +4713,55 @@
         <v>366.6659915588407</v>
       </c>
       <c r="F7" t="n">
-        <v>219.7760440609303</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="H7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080556</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121974</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225447</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317426</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
-        <v>1391.602671897099</v>
+        <v>1391.6026718971</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="V7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="W7" t="n">
         <v>1464.062502353264</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>169.5545250471063</v>
+        <v>1568.080387084741</v>
       </c>
       <c r="C8" t="n">
-        <v>169.5545250471063</v>
+        <v>1568.080387084741</v>
       </c>
       <c r="D8" t="n">
-        <v>169.5545250471063</v>
+        <v>1568.080387084741</v>
       </c>
       <c r="E8" t="n">
-        <v>169.5545250471063</v>
+        <v>1182.292134486497</v>
       </c>
       <c r="F8" t="n">
-        <v>162.6090242979029</v>
+        <v>771.3062296968895</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719911</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J8" t="n">
         <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135514</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477381</v>
+        <v>804.613300747739</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019557</v>
+        <v>2505.491157756179</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.590997961804</v>
+        <v>2251.911929698426</v>
       </c>
       <c r="V8" t="n">
-        <v>1672.528110618234</v>
+        <v>1920.849042354856</v>
       </c>
       <c r="W8" t="n">
-        <v>1319.75945534812</v>
+        <v>1568.080387084741</v>
       </c>
       <c r="X8" t="n">
-        <v>946.2936970870398</v>
+        <v>1568.080387084741</v>
       </c>
       <c r="Y8" t="n">
-        <v>556.1543651112281</v>
+        <v>1568.080387084741</v>
       </c>
     </row>
     <row r="9">
@@ -4868,43 +4868,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096208</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>426.7768722128335</v>
+        <v>688.5974568552865</v>
       </c>
       <c r="L9" t="n">
-        <v>1067.800081832727</v>
+        <v>985.9094059716012</v>
       </c>
       <c r="M9" t="n">
-        <v>1434.105971325053</v>
+        <v>1352.215295463927</v>
       </c>
       <c r="N9" t="n">
-        <v>1824.515532650795</v>
+        <v>1742.624856789669</v>
       </c>
       <c r="O9" t="n">
-        <v>2159.444213366326</v>
+        <v>2077.5535375052</v>
       </c>
       <c r="P9" t="n">
-        <v>2420.128558892024</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.6319074814764</v>
+        <v>727.1359052451305</v>
       </c>
       <c r="C10" t="n">
-        <v>664.6957245535696</v>
+        <v>558.1997223172236</v>
       </c>
       <c r="D10" t="n">
-        <v>514.5790851412338</v>
+        <v>408.0830829048879</v>
       </c>
       <c r="E10" t="n">
-        <v>366.6659915588407</v>
+        <v>260.1699893224948</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609303</v>
+        <v>113.2800418245844</v>
       </c>
       <c r="G10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="H10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080555</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -4998,16 +4998,16 @@
         <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1464.062502353264</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>1464.062502353264</v>
+        <v>1357.566500116918</v>
       </c>
       <c r="X10" t="n">
-        <v>1236.072951455246</v>
+        <v>1129.5769492189</v>
       </c>
       <c r="Y10" t="n">
-        <v>1015.280372311716</v>
+        <v>908.7843700753702</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.533952578166</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1804.131916132773</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2356.04164637206</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2298.214965955139</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2078.61350097808</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1789.538274322277</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.538274322277</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.121104285317</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.131553387299</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5272,28 +5272,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,16 +5305,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5372,7 +5372,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5481,7 +5481,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,16 +5542,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5609,7 +5609,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876688</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>580.8993044876688</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6083,7 +6083,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887188</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892776</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2350.747103816259</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2131.145638839201</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1842.070412183399</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6317,10 +6317,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>726.955532171245</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>558.0193492433381</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2410.164476918741</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2410.164476918741</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2190.563011941682</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1901.48778528588</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1646.803297079993</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1357.386127043032</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1129.396576145015</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.6039970014847</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7022,19 +7022,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>300.0149148245539</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>300.0149148245539</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7174,10 +7174,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7259,13 +7259,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7323,10 +7323,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7490,25 +7490,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7730,22 +7730,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>552.8412329032296</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C46" t="n">
-        <v>552.8412329032296</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
         <v>402.7245934908939</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2236.050177650725</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2016.448712673667</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.373486017864</v>
+        <v>1754.805592491204</v>
       </c>
       <c r="V46" t="n">
-        <v>1472.688997811978</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="W46" t="n">
-        <v>1183.271827775017</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X46" t="n">
-        <v>955.2822768769995</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y46" t="n">
-        <v>734.4896977334694</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>151.6735093079757</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>318.4234200803887</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>142.3850817401936</v>
       </c>
       <c r="L3" t="n">
-        <v>207.9407978764908</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945058</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8303,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>277.4922425530996</v>
       </c>
       <c r="N6" t="n">
-        <v>253.1450992870217</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>105.358818050613</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>232.4400048971971</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906574</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>347.1830914177567</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>11.32082591987808</v>
+        <v>119.3759750973102</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>33.76564955277411</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>84.77391660561995</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>142.4141550350972</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
     </row>
     <row r="20">
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>31.20374480898987</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>92.12028678808304</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>152.1477127454052</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>19.60579027761636</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>29.94462611521699</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>72.11969353038562</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>17.42427990597322</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>38.59775584152646</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>65.75554125013261</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>977847.7089312363</v>
+        <v>977847.7089312369</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>954841.4432353831</v>
+        <v>954841.443235383</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>933708.0853286179</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933708.0853286183</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>933708.0853286181</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>933708.0853286181</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>933708.0853286181</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933708.0853286181</v>
+        <v>933708.0853286182</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>933708.0853286182</v>
+        <v>933708.0853286181</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185694</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="F2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="F2" t="n">
-        <v>484287.9598140035</v>
-      </c>
       <c r="G2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="H2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="I2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="J2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="M2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140036</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753948</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898964</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457507</v>
+        <v>500888.8677457504</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.456904235</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151599</v>
+        <v>159785.8388151605</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695106</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
@@ -26453,13 +26453,13 @@
         <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699083</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.08936150963</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.08936150963</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-696188.78766898</v>
+        <v>-696188.7876689762</v>
       </c>
       <c r="C6" t="n">
-        <v>97312.8580419201</v>
+        <v>97312.85804191569</v>
       </c>
       <c r="D6" t="n">
         <v>270077.2178318124</v>
       </c>
       <c r="E6" t="n">
-        <v>-124358.2975417062</v>
+        <v>-124045.6562127845</v>
       </c>
       <c r="F6" t="n">
-        <v>376530.5702040443</v>
+        <v>376843.2115329657</v>
       </c>
       <c r="G6" t="n">
-        <v>376530.5702040445</v>
+        <v>376843.2115329658</v>
       </c>
       <c r="H6" t="n">
-        <v>376530.5702040444</v>
+        <v>376843.2115329658</v>
       </c>
       <c r="I6" t="n">
-        <v>376530.5702040445</v>
+        <v>376843.2115329657</v>
       </c>
       <c r="J6" t="n">
-        <v>207116.5533779966</v>
+        <v>207429.1947069176</v>
       </c>
       <c r="K6" t="n">
-        <v>376530.5702040444</v>
+        <v>376843.2115329657</v>
       </c>
       <c r="L6" t="n">
-        <v>376530.5702040446</v>
+        <v>376843.2115329654</v>
       </c>
       <c r="M6" t="n">
-        <v>245646.1132998093</v>
+        <v>245958.7546287306</v>
       </c>
       <c r="N6" t="n">
-        <v>376530.5702040445</v>
+        <v>376843.2115329658</v>
       </c>
       <c r="O6" t="n">
-        <v>376530.5702040445</v>
+        <v>376843.2115329658</v>
       </c>
       <c r="P6" t="n">
-        <v>376530.5702040445</v>
+        <v>376843.2115329657</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976067</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498449</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976067</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.7254341522382</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918289</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>339.9664944694686</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>67.29089396849494</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>151.6737188943044</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>150.2028876639206</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>116.4834600519701</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>200.4475243713016</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
@@ -27596,10 +27596,10 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>249.8638768670037</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>303.1567710174774</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>47.68744214833326</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>105.4310422139829</v>
+        <v>105.4310422139818</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>366.6595115442167</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>122.9023136448011</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>105.4310422139825</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28070,10 +28070,10 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>71.04568720121986</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090879</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625572</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115537</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066885</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.5191561611355</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014918</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682829</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658663</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485875</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775938</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330891</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325338</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282097</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494783</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072703</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.613166585674098</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743142</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307749</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859901</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.4910271261546</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605097</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911956</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240715</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257139</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433284</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028901</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526427</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.9638617996921</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993399</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.1061293806364538</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651422</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351901</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777186</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855552</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711379</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600305</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932497</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840036</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184392</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351501</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311386</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519936</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567068</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965165</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189582</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265706</v>
       </c>
       <c r="H5" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730742</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182605</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793979</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853283</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027923</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839336</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712727</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062754</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R5" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237521</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179235</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837064</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612564</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H6" t="n">
-        <v>19.52107049255621</v>
+        <v>19.52107049255622</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041654</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315581</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274807</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157839</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,46 +31439,46 @@
         <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599261</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979553</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561278</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662511</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843065</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523075</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,43 +31679,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31858,10 +31858,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>332.9841464938405</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>468.3778278510275</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33742,22 +33742,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34210,16 +34210,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,10 +34228,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>399.0581126127094</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34465,10 +34465,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>434.6640573992324</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>74.84835158000217</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241328</v>
+        <v>487.5747176873197</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>240.0230113315046</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>299.0611783410102</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>308.5607133692753</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>277.8951710269007</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>520.751023402713</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>315.5952546185443</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>39.52180169138416</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>151.6622745597322</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>265.0346698919892</v>
       </c>
       <c r="L3" t="n">
-        <v>419.6487506571282</v>
+        <v>582.5482980840947</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>266.6055873691773</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352464</v>
+        <v>288.2160307407382</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>241.2171229812694</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>492.5324261689353</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>276.0148132527177</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882741</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.857665945255</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203466</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550902</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632322</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324789</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000436</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944423</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915742</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153411</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755196</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873427</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495859</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510059</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961988</v>
+        <v>21.71629760961994</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171363</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="N6" t="n">
-        <v>647.4981915352463</v>
+        <v>394.3530922482248</v>
       </c>
       <c r="O6" t="n">
-        <v>443.6706167531696</v>
+        <v>338.3117987025569</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>484.4366997103476</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>118.0296862297624</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225502</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978366</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266584</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912599</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597959</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701675</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.7336217364322</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,28 +35254,28 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057228</v>
       </c>
       <c r="L9" t="n">
-        <v>647.4981915352463</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>263.3175207330283</v>
+        <v>371.3726699104606</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297622</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225502</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0097390795103</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>257.9506595121318</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>256.1654199113569</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>334.4034204366973</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>256.1654199113569</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>556.4534171013642</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,10 +37876,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>265.0837051983791</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38113,10 +38113,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>300.6896499849021</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
